--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_134.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_134.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,622 +488,664 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1714285714285714</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_155</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06593406593406594</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C'], ['G:min/D', 'D:7', 'G:min'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(45.72, 49.9)]</t>
+          <t>[['Db', 'Ab', 'Db:maj6/2'], ['F:min', 'C:7', 'F:min'], ['Ab', 'Db/5', 'Ab']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(1.18, 6.14)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:01:04.220000', '0:01:06.980000'), ('0:00:41.380000', '0:00:43.340000'), ('0:00:16.820000', '0:00:23.180000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:03.858000', '0:01:20.628000'), ('0:00:17.833000', '0:00:21.409000'), ('0:00:00.243000', '0:00:09.120000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2113095238095238</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
-        </is>
+          <t>isophonics_297</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_288</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08114035087719298</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C', 'G']]</t>
+          <t>[['D', 'G', 'E:min'], ['G', 'D', 'E:min/b3'], ['G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(127.6, 133.76)]</t>
+          <t>[['B', 'E', 'C#:min'], ['E', 'B', 'C#:min'], ['E', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(16.341609, 25.141972)]</t>
+          <t>[('0:00:57.139232', '0:01:02.665581'), ('0:00:15.006624', '0:00:17.758189'), ('0:00:00.421247', '0:00:03.083177')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:48.338707', '0:00:51.090272'), ('0:00:24.921383', '0:00:29.008095'), ('0:00:16.701519', '0:00:23.528185')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(11.06, 66.82)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(10.94, 65.78)]</t>
+          <t>[('0:01:01.540000', '0:01:07.900000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:02.580000', '0:01:09.180000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.09018567639257294</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7/F', 'F:min'], ['F:min', 'C:maj/F', 'F:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84), (13.74, 22.56)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(14.92, 20.76), (5.84, 12.72)]</t>
+          <t>[('0:00:15.300000', '0:00:17.780000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:01:06.920000', '0:01:08.180000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_166</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2451923076923077</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(17.839297, 22.785147)]</t>
+          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(0.440395, 7.142059)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:35.140000', '0:00:39.900000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:31.740000', '0:00:33.880000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_60</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_247</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2074074074074074</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:min7', 'C:7', 'G:min7', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_43</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5052631578947369</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'C:min7', 'F:7']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(82.77, 86.96)]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(80.845, 88.769)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:02:08.540000', '0:02:13.900000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:06.357029', '0:00:26.140430')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_33</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07417582417582418</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Ab/5', 'Eb', 'Bb/3']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_101</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'G']]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(22.841, 26.66)]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(2.252358, 5.805011)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:01:42.400000', '0:02:01.440000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:30.800000', '0:00:45.300000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1821631878557875</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D', 'E', 'A', 'E'], ['A', 'D', 'A', 'A']]</t>
-        </is>
+          <t>jaah_0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1559220389805097</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'A', 'E'], ['A', 'D', 'A', 'A']]</t>
+          <t>[['Ab', 'Eb:7', 'Ab', 'Ab']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(31.759659, 37.738798), (39.724104, 47.769818)]</t>
+          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(53.551034, 60.67956), (34.081102, 39.375251)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:01:03.010000', '0:01:08.270000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:20.200000', '0:00:24.060000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3190045248868779</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E', 'E/3', 'A', 'E/5', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>jaah_72</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1014285714285714</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B', 'B', 'E', 'B', 'F#', 'B']]</t>
+          <t>[['A#:7', 'D#:maj', 'D#:maj'], ['D#:maj', 'D#:maj', 'D#:7']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(27.610855, 41.761111)]</t>
+          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Eb:7']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(9.107074, 30.028253)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:05.780000', '0:01:14.480000'), ('0:01:07.380000', '0:01:17.760000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:24.290000', '0:00:28.790000'), ('0:00:29.900000', '0:00:33.220000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1607142857142857</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B', 'B', 'E/5']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(94.0, 102.97)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(55.629773, 63.091379)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:01:53.020000', '0:01:54.760000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1093350383631713</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.425</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'E']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(6.09, 13.659705)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(0.444363, 11.013666)]</t>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
+          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_132</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1055194805194805</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C#:min', 'G#:7', 'C#:min']]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'E:7', 'A:maj', 'C#:7/G#', 'G:(3,5)', 'B:maj', 'G#:(3,5,b7,b9)', 'C#:min/F#', 'E:maj/F#', 'F#:7', 'B:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(55.14, 63.04)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(24.282834, 30.041383)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:00.320000', '0:00:40.640000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:01.600000', '0:00:41.420000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_180</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.106312292358804</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F', 'F:7', 'Bb'], ['G', 'C', 'F'], ['F', 'C', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'D#:7', 'G#:maj'], ['F:maj/A', 'A#:maj/D', 'D#:maj'], ['D#:maj', 'A#:maj', 'D#:maj']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(17.737518, 22.996837), (7.265318, 12.547858), (0.440395, 5.558652)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(17.98, 26.32), (187.44, 190.02), (2.56, 21.44)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:05.880000', '0:00:21.160000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:05.700000', '0:00:19.720000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1182170542635659</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Bb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'C']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(51.839081, 63.042709)]</t>
+          <t>[['C#:maj/G#', 'G#:(3,5,b7,b9)', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(27.476822, 35.056893)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:24.660000', '0:00:27.760000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:58.060000', '0:01:00.620000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_243</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1515151515151515</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B', 'E'], ['A', 'B', 'E'], ['B', 'E', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_24</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_204</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:maj', 'F:maj'], ['Bb', 'C:maj', 'F:maj'], ['C:maj', 'F:maj', 'G:min']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(1.302038, 5.800261), (19.616133, 25.815861), (21.14865, 27.348378)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(138.21, 142.877), (63.861, 66.732), (64.473, 67.15)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:51.700000', '0:00:57.700000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:43.100000', '0:00:47.740000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_116</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_178</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3342175066312997</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(44.3, 67.1)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(1.14, 9.88)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
